--- a/biology/Zoologie/Daubenet/Daubenet.xlsx
+++ b/biology/Zoologie/Daubenet/Daubenet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calamus
 Calamus est un genre de poissons perciformes dont les différentes espèces sont appelées communément daubenets.
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (29 janv. 2016)[1] et ITIS      (29 janv. 2016)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (29 janv. 2016) et ITIS      (29 janv. 2016) :
 Calamus arctifrons Goode et Bean, 1882
 Calamus bajonado (Bloch et Schneider, 1801)
 Calamus brachysomus (Lockington, 1880)
@@ -524,7 +538,7 @@
 Calamus leucosteus Jordan et Gilbert in Jordan, 1885
 Calamus mu Randall et Caldwell, 1966
 Calamus nodosus Randall et Caldwell, 1966 - daubenet bouton
-Calamus penna (Valenciennes in Cuvier et Valenciennes, 1830) - non reconnue par FishBase                                           (29 janv. 2016)[3] qui le classe dans le genre Cabdio
+Calamus penna (Valenciennes in Cuvier et Valenciennes, 1830) - non reconnue par FishBase                                           (29 janv. 2016) qui le classe dans le genre Cabdio
 Calamus pennatula Guichenot, 1868
 Calamus proridens Jordan et Gilbert, 1884
 Calamus taurinus (Jenyns, 1840)</t>
